--- a/Course Manager.xlsx
+++ b/Course Manager.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BB0F52-2A81-4AA2-8CB2-BB4E10A76226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D69CE2-0341-491F-A66D-F165174917E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Credits And Progress" sheetId="2" r:id="rId1"/>
-    <sheet name="Semester 1" sheetId="3" r:id="rId2"/>
+    <sheet name="Dashboard" sheetId="4" r:id="rId1"/>
+    <sheet name="Credits And Progress" sheetId="2" r:id="rId2"/>
+    <sheet name="Semester 1" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="BALANCE">#REF!</definedName>
     <definedName name="College">'Credits And Progress'!$B$1</definedName>
     <definedName name="ColumnTitle1">#REF!</definedName>
+    <definedName name="ColumnTitle2" localSheetId="2">Courses[[#Headers],[COURSE TITLE]]</definedName>
     <definedName name="ColumnTitle2">Courses[[#Headers],[COURSE TITLE]]</definedName>
     <definedName name="ColumnTitle3">#REF!</definedName>
     <definedName name="ColumnTitle4">#REF!</definedName>
@@ -23,7 +25,7 @@
     <definedName name="Months_in_term">#REF!</definedName>
     <definedName name="NET_MONTHLY_EXPENSES">#REF!</definedName>
     <definedName name="NET_MONTHLY_INCOME">#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Credits And Progress'!$7:$7</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Credits And Progress'!$7:$7</definedName>
     <definedName name="Requirement">'Credits And Progress'!#REF!</definedName>
     <definedName name="StartTime">#REF!</definedName>
     <definedName name="TimeInterval">#REF!</definedName>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="64">
   <si>
     <t>COURSE TITLE</t>
   </si>
@@ -189,37 +191,58 @@
     <t>Performing Arts/Community Service</t>
   </si>
   <si>
-    <t>IA1</t>
-  </si>
-  <si>
-    <t>MID-TERM</t>
-  </si>
-  <si>
-    <t>IA2</t>
-  </si>
-  <si>
     <t>TOTAL INTERNALS</t>
   </si>
   <si>
-    <t>OTHER COMPONENTS</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA </t>
-  </si>
-  <si>
     <t>SEE</t>
   </si>
   <si>
     <t>GRADE POINT</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>SGPA -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     DASHBOARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          B.Tech(Hons.) CSE - RV University</t>
+  </si>
+  <si>
+    <t>Semester Wise GPA</t>
+  </si>
+  <si>
+    <t>Semester 3</t>
+  </si>
+  <si>
+    <t>Semester 4</t>
+  </si>
+  <si>
+    <t>Semester 5</t>
+  </si>
+  <si>
+    <t>Semester 6</t>
+  </si>
+  <si>
+    <t>Semester 7</t>
+  </si>
+  <si>
+    <t>Semester 8</t>
+  </si>
+  <si>
+    <t>Semester</t>
+  </si>
+  <si>
+    <t>SGPA</t>
+  </si>
+  <si>
+    <t>CGPA</t>
+  </si>
+  <si>
+    <t>Final CGPA</t>
+  </si>
+  <si>
+    <t>Credits Earned -</t>
   </si>
 </sst>
 </file>
@@ -231,7 +254,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
@@ -372,6 +395,78 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="0"/>
+      <name val="Space Grotesk Medium"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="3" tint="9.9948118533890809E-2"/>
+      <name val="Space Grotesk SemiBold"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Space Grotesk SemiBold"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Space Grotesk SemiBold"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Space Grotesk SemiBold"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Space Grotesk SemiBold"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Space Grotesk SemiBold"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Space Grotesk SemiBold"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Space Grotesk SemiBold"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Space Grotesk Medium"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Space Grotesk SemiBold"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="Space Grotesk SemiBold"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="Space Grotesk SemiBold"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="Space Grotesk SemiBold"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Space Grotesk Medium"/>
     </font>
@@ -420,7 +515,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -437,6 +532,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
@@ -501,7 +611,7 @@
       <alignment horizontal="right" wrapText="1" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -514,79 +624,130 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="4" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="16" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="3" borderId="0" xfId="21" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="7" borderId="0" xfId="21" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="7" borderId="0" xfId="21" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="3" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="7" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -615,25 +776,11 @@
     <cellStyle name="Underline" xfId="15" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
     <cellStyle name="Year" xfId="6" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="30">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <name val="Space Grotesk Medium"/>
-        <scheme val="none"/>
+        <color theme="3" tint="9.9948118533890809E-2"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -655,20 +802,6 @@
         <name val="Space Grotesk Medium"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Space Grotesk Medium"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -691,6 +824,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Space Grotesk Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -705,13 +850,8 @@
         <name val="Space Grotesk Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -723,42 +863,7 @@
         <name val="Space Grotesk Medium"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Space Grotesk Medium"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Space Grotesk Medium"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Space Grotesk Medium"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1044,18 +1149,18 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="College course manager table style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="College course manager table style" pivot="0" count="5" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="32"/>
-      <tableStyleElement type="headerRow" dxfId="31"/>
-      <tableStyleElement type="totalRow" dxfId="30"/>
-      <tableStyleElement type="firstColumn" dxfId="29"/>
-      <tableStyleElement type="lastColumn" dxfId="28"/>
+      <tableStyleElement type="wholeTable" dxfId="29"/>
+      <tableStyleElement type="headerRow" dxfId="28"/>
+      <tableStyleElement type="totalRow" dxfId="27"/>
+      <tableStyleElement type="firstColumn" dxfId="26"/>
+      <tableStyleElement type="lastColumn" dxfId="25"/>
     </tableStyle>
     <tableStyle name="College course manager table style 2" pivot="0" count="5" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="27"/>
-      <tableStyleElement type="headerRow" dxfId="26"/>
-      <tableStyleElement type="totalRow" dxfId="25"/>
-      <tableStyleElement type="firstColumn" dxfId="24"/>
-      <tableStyleElement type="lastColumn" dxfId="23"/>
+      <tableStyleElement type="wholeTable" dxfId="24"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="totalRow" dxfId="22"/>
+      <tableStyleElement type="firstColumn" dxfId="21"/>
+      <tableStyleElement type="lastColumn" dxfId="20"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1070,16 +1175,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Courses" displayName="Courses" ref="B7:H21" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="B7:H21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Courses" displayName="Courses" ref="B7:H21" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B7:H21" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="COURSE TITLE" dataDxfId="20" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="COURSE CODE" dataDxfId="19" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="YEAR" dataDxfId="18" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="CREDITS" dataDxfId="17" dataCellStyle="Table center align"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="COMPLETED" dataDxfId="16" dataCellStyle="Table center align"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="GRADE" dataDxfId="15" dataCellStyle="Grade"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="SEMESTER" dataDxfId="14" dataCellStyle="Table left align"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="COURSE TITLE" dataDxfId="17" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="COURSE CODE" dataDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="YEAR" dataDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="CREDITS" dataDxfId="14" dataCellStyle="Table center align"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="COMPLETED" dataDxfId="13" dataCellStyle="Table center align"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="GRADE" dataDxfId="12" dataCellStyle="Grade"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="SEMESTER" dataDxfId="11" dataCellStyle="Table left align"/>
   </tableColumns>
   <tableStyleInfo name="College course manager table style" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -1091,19 +1204,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7771B89B-81E6-4469-831B-C0F37BB844DA}" name="Courses4" displayName="Courses4" ref="B4:K12" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="B4:K12" xr:uid="{7771B89B-81E6-4469-831B-C0F37BB844DA}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{56470E76-36E8-4435-9B59-EA8D1A723667}" name="COURSE TITLE" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{0D053C40-3EA3-4843-A3B9-BE871BCCFF25}" name="COURSE CODE" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{F52384BA-8983-46F5-99D1-E327FFFCEB6B}" name="CREDITS" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{3BE85119-3E89-476A-904D-802605C02024}" name="IA1" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{7E5567EC-76E5-436A-9C2E-482C5D8E9CC5}" name="MID-TERM" dataDxfId="10" dataCellStyle="Table center align"/>
-    <tableColumn id="8" xr3:uid="{B165FD7F-744E-4CA5-AF54-A1011830165F}" name="IA2" dataDxfId="6" dataCellStyle="Table center align"/>
-    <tableColumn id="5" xr3:uid="{030F7C4B-3079-4CC1-BE6C-6E84BA03EE89}" name="OTHER COMPONENTS" dataDxfId="9" dataCellStyle="Table center align"/>
-    <tableColumn id="6" xr3:uid="{D33482AC-9C4E-4E11-B600-2FE0E78588F2}" name="TOTAL INTERNALS" dataDxfId="8" dataCellStyle="Grade"/>
-    <tableColumn id="9" xr3:uid="{ECADD61C-82DE-410F-9880-E912418EA3B3}" name="SEE" dataDxfId="5" dataCellStyle="Grade"/>
-    <tableColumn id="7" xr3:uid="{37829606-D0E8-4745-B822-836646AB4CCB}" name="GRADE POINT" dataDxfId="7" dataCellStyle="Table left align"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2FA3ACF6-4BF7-45EF-A341-6C08C453CC44}" name="Courses45" displayName="Courses45" ref="B4:G12" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B4:G12" xr:uid="{7771B89B-81E6-4469-831B-C0F37BB844DA}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{5CFC47D5-960F-4887-ADF4-C0BD4F395D44}" name="COURSE TITLE" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{E040AAF4-5F38-4E14-A4FF-2DBA986E8AF8}" name="COURSE CODE" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{F13F7D0D-56D6-4ADB-8E9B-9B488669EED0}" name="CREDITS" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{974234F2-B7AE-433A-AC19-D9EED2553B9B}" name="TOTAL INTERNALS" dataDxfId="5" dataCellStyle="Grade"/>
+    <tableColumn id="9" xr3:uid="{C262E889-63BB-4ACD-BE78-5684C4E0CBE2}" name="SEE" dataDxfId="4" dataCellStyle="Grade"/>
+    <tableColumn id="7" xr3:uid="{AF79AE53-A9EA-4AEA-ACB7-152F67783900}" name="GRADE POINT" dataDxfId="3" dataCellStyle="Table left align"/>
   </tableColumns>
   <tableStyleInfo name="College course manager table style" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -1316,28 +1432,361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106391AD-BE2A-47B2-B5E3-BE7218B10289}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.19921875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="13" style="32" customWidth="1"/>
+    <col min="3" max="3" width="26.8984375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="15.69921875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="33" style="32" customWidth="1"/>
+    <col min="6" max="6" width="16.796875" style="32" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="21" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="22"/>
+    </row>
+    <row r="2" spans="1:6" s="23" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="1:6" ht="19.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <f>AVERAGE(Courses[GRADE])</f>
+        <v>9</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="26">
+        <f>COUNTIF(Courses[COMPLETED],"Yes")/COUNTA(Courses[COURSE TITLE])</f>
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="26" t="str">
+        <f>A14</f>
+        <v>Semester 6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="str">
+        <f>IFERROR(TEXT(AVERAGEIF(Courses[COMPLETED],"Yes",Courses[GRADE]),"0.00"),"0.00")&amp;" CGPA"</f>
+        <v>9.00 CGPA</v>
+      </c>
+      <c r="C5" s="29" t="str">
+        <f>TEXT(COUNTIF(Courses[COMPLETED],"Yes")/COUNTA(Courses[COURSE TITLE]),"0%")&amp;" Completed"</f>
+        <v>50% Completed</v>
+      </c>
+      <c r="E5" s="29" t="str">
+        <f>SUMIFS(Courses[CREDITS], Courses[COMPLETED], "Yes")&amp;" Credits Collected Out of 180"</f>
+        <v>26 Credits Collected Out of 180</v>
+      </c>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+    </row>
+    <row r="7" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="38">
+        <v>0</v>
+      </c>
+      <c r="C9" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="38">
+        <v>0</v>
+      </c>
+      <c r="C10" s="38">
+        <f>AVERAGE(B9:B10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="38">
+        <v>0</v>
+      </c>
+      <c r="C11" s="38">
+        <f>AVERAGE(B9:B11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="38">
+        <v>0</v>
+      </c>
+      <c r="C12" s="38">
+        <f>AVERAGE(B9:B12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="38">
+        <v>0</v>
+      </c>
+      <c r="C13" s="38">
+        <f>AVERAGE(B9:B13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="19.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="38">
+        <v>0</v>
+      </c>
+      <c r="C14" s="38">
+        <f>AVERAGE(B9:B14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="38">
+        <v>0</v>
+      </c>
+      <c r="C15" s="38">
+        <f>AVERAGE(B9:B15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="19.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38">
+        <f>AVERAGE(B9:B16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="37">
+        <f>AVERAGE(B9:B16)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="5">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="dataBar" priority="2">
+      <dataBar showValue="0">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="10"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{09D4376B-40AE-447C-B3A9-C9902B71A862}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="4">
+      <dataBar showValue="0">
+        <cfvo type="min"/>
+        <cfvo type="num" val="4"/>
+        <color theme="4"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{62504453-8B59-4FA2-9FD3-9E93CE81D21D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="dataBar" priority="3">
+      <dataBar showValue="0">
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="4"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{77986E2F-7B4E-44F0-9266-69967204A77B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="0">
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="4"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FC23C1D8-87CF-4B84-9C36-E4B5D2B0BB12}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter college name in this cell" sqref="A1" xr:uid="{EA79F5F5-D93B-4600-A385-0C19C39D369E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Overall Progress is automatically calculated" sqref="D4" xr:uid="{BCAA6DDB-AAB5-4DCF-A8FF-7DB055FC7FAF}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Current GPA is automatically calculated" sqref="B4" xr:uid="{F4109114-BD89-46A9-A23B-2E25EF92D99C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Data bar showing the percent of the overall courses that are completed" sqref="C4 E4" xr:uid="{8F2369C8-8D0C-4928-84B2-79DDA042F25C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Data bar showing the current GPA out of a 4.0 scale" sqref="A4" xr:uid="{BB93C16C-DAAC-47C2-AE07-9F83027F3CD4}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{09D4376B-40AE-447C-B3A9-C9902B71A862}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>10</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{62504453-8B59-4FA2-9FD3-9E93CE81D21D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>4</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="4"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor theme="4"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{77986E2F-7B4E-44F0-9266-69967204A77B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="4"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor theme="4"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FC23C1D8-87CF-4B84-9C36-E4B5D2B0BB12}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="4"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor theme="4"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E4</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
-    <tabColor theme="1" tint="0.249977111117893"/>
+    <tabColor theme="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="37.19921875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.296875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="30.59765625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.59765625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.3984375" style="5" customWidth="1"/>
-    <col min="7" max="8" width="16.69921875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="2.59765625" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="2.59765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="37.19921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.59765625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.59765625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.3984375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="16.69921875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="2.59765625" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="2" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1351,365 +1800,377 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="43"/>
+      <c r="F3" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="43"/>
     </row>
     <row r="4" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <f>AVERAGE(Courses[GRADE])</f>
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="str">
+        <f>IFERROR(TEXT(AVERAGEIF(Courses[COMPLETED],"Yes",Courses[GRADE]),"0.00"),"0.00")&amp;" CGPA"</f>
+        <v>9.00 CGPA</v>
+      </c>
+      <c r="D4" s="5">
+        <f>COUNTIF(Courses[COMPLETED],"Yes")/COUNTA(Courses[COURSE TITLE])</f>
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="7" t="str">
+        <f>TEXT(COUNTIF(Courses[COMPLETED],"Yes")/COUNTA(Courses[COURSE TITLE]),"0%")&amp;" Completed"</f>
+        <v>50% Completed</v>
+      </c>
+      <c r="F4" s="44" t="str">
+        <f>SUMIFS(Courses[CREDITS], Courses[COMPLETED], "Yes")&amp;" Credits Collected Out of 180"</f>
+        <v>26 Credits Collected Out of 180</v>
+      </c>
+      <c r="G4" s="44"/>
+    </row>
+    <row r="5" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="12">
+        <v>3</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="13">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="str">
-        <f>IFERROR(TEXT(AVERAGEIF(Courses[COMPLETED],"Yes",Courses[GRADE]),"0.00"),"0.00")&amp;" CGPA"</f>
-        <v>10.00 CGPA</v>
-      </c>
-      <c r="D4" s="6">
-        <f>COUNTIF(Courses[COMPLETED],"Yes")/COUNTA(Courses[COURSE TITLE])</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="E4" s="8" t="str">
-        <f>TEXT(COUNTIF(Courses[COMPLETED],"Yes")/COUNTA(Courses[COURSE TITLE]),"0%")&amp;" Completed"</f>
-        <v>7% Completed</v>
-      </c>
-      <c r="F4" s="9" t="str">
-        <f>SUMIFS(Courses[CREDITS], Courses[COMPLETED], "Yes")&amp;" Credits Collected Out of 180"</f>
-        <v>3 Credits Collected Out of 180</v>
-      </c>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="H8" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="12">
+        <v>4</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="13">
+        <v>8</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="12">
+        <v>4</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="13">
+        <v>8</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="12">
+        <v>3</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="13">
+        <v>10</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="12">
+        <v>4</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="13">
+        <v>9</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="12">
+        <v>4</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="13">
+        <v>8</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="12">
+        <v>4</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="13">
+        <v>10</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="12">
+        <v>4</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="12">
+        <v>4</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="12">
+        <v>4</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="12">
+        <v>4</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="12">
+        <v>4</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="12">
         <v>2</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="14">
-        <v>3</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="15">
-        <v>10</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="14">
-        <v>4</v>
-      </c>
-      <c r="F9" s="14" t="s">
+      <c r="F20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="14">
-        <v>4</v>
-      </c>
-      <c r="F10" s="14" t="s">
+      <c r="G20" s="13"/>
+      <c r="H20" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="12">
+        <v>2</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="14">
-        <v>3</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="14">
-        <v>4</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="14">
-        <v>4</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="14">
-        <v>4</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="14">
-        <v>4</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="14">
-        <v>4</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="14">
-        <v>4</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="14">
-        <v>4</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="14">
-        <v>4</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="14">
-        <v>2</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="14">
-        <v>2</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16" t="s">
+      <c r="G21" s="13"/>
+      <c r="H21" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1723,8 +2184,22 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="0">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="10"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{961D761B-42A4-41BF-AE55-C37E4CE09C84}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
@@ -1755,25 +2230,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="dataBar" priority="1">
-      <dataBar showValue="0">
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="10"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{961D761B-42A4-41BF-AE55-C37E4CE09C84}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="16">
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="Grade is calculated as a GPA (non-weighted) and should be between 0 and 4." sqref="G10" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>0</formula1>
-      <formula2>4</formula2>
-    </dataValidation>
+  <dataValidations count="14">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Yes or No from the dropdown list to indicate whether the course has been completed or not. Select ALT+DOWN ARROW, navigate to either Yes or No, then select ENTER" sqref="F7" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter college name in this cell" sqref="B1" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Data bar showing the current GPA out of a 4.0 scale" sqref="B4:B5" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
@@ -1782,7 +2239,6 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the course # in this column" sqref="C7" xr:uid="{00000000-0002-0000-0100-00000C000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the requirement in this column" sqref="D7" xr:uid="{00000000-0002-0000-0100-00000D000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the number of credits for each course in this column" sqref="E7" xr:uid="{00000000-0002-0000-0100-00000E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="For completed courses, enter the grade received for the course in this column" sqref="G7" xr:uid="{00000000-0002-0000-0100-00000F000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the term for which the course is applicable in this column" sqref="H7" xr:uid="{00000000-0002-0000-0100-000010000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The credits worksheet has 2 data bars shows overall progress, a section for Requirements that automatically calculates the total earned and needed credits. It also has a table of courses for storing term course information" sqref="A1" xr:uid="{00000000-0002-0000-0100-000011000000}"/>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="Select either Yes or No from the provided list. RETRY then ALT+DOWN ARROW, then ENTER to select a value. CANCEL to exit the cell" sqref="F8:F21" xr:uid="{00000000-0002-0000-0100-000012000000}">
@@ -1790,14 +2246,14 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Current GPA is automatically calculated" sqref="C4:C5" xr:uid="{00000000-0002-0000-0100-000013000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Overall Progress is automatically calculated" sqref="E4:E5" xr:uid="{00000000-0002-0000-0100-000014000000}"/>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="Grade is calculated as a GPA (non-weighted) and should be between 0 and 4." sqref="G8:G9" xr:uid="{758FB4A3-A588-4804-98D1-F60E7610A1A0}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G21" xr:uid="{5C502580-079F-41BA-9B66-CFC1AF2CE4F0}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.25" footer="0.25"/>
-  <pageSetup scale="66" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -1807,6 +2263,21 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{961D761B-42A4-41BF-AE55-C37E4CE09C84}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>10</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B4</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{260E324B-B05A-45D1-A324-2B8131FE45C3}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
@@ -1835,452 +2306,306 @@
           </x14:cfRule>
           <xm:sqref>D4:D5</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{961D761B-42A4-41BF-AE55-C37E4CE09C84}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>10</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B4</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8C0930-FEA5-4425-AB98-890845F21207}">
-  <dimension ref="A1:K19"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DA2483-4FD2-4C59-94D3-6E270BAB209C}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="17" customWidth="1"/>
-    <col min="2" max="2" width="46.3984375" style="17" customWidth="1"/>
-    <col min="3" max="4" width="17.69921875" style="22" customWidth="1"/>
-    <col min="5" max="5" width="17.69921875" style="26" customWidth="1"/>
-    <col min="6" max="7" width="13.19921875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="22" style="17" customWidth="1"/>
-    <col min="11" max="11" width="20" style="17" customWidth="1"/>
-    <col min="12" max="16384" width="8.796875" style="17"/>
+    <col min="1" max="1" width="2.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="46.3984375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="17.69921875" style="18" customWidth="1"/>
+    <col min="5" max="6" width="22" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="15"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="13" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="12">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13">
+        <v>64</v>
+      </c>
+      <c r="F5" s="13">
+        <v>30</v>
+      </c>
+      <c r="G5" s="14">
+        <f>IF(E5+F5&gt;=90,10,IF(E5+F5&gt;=80,9,IF(E5+F5&gt;=70,8,IF(E5+F5&gt;=60,7,IF(E5+F5&gt;=50,6,IF(E5+F5&gt;=45,5,IF(E5+F5&gt;=40,4,0)))))))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="12">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12">
+        <v>42</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="14">
+        <f t="shared" ref="G6:G11" si="0">IF(E6+F6&gt;=90,10,IF(E6+F6&gt;=80,9,IF(E6+F6&gt;=70,8,IF(E6+F6&gt;=60,7,IF(E6+F6&gt;=50,6,IF(E6+F6&gt;=45,5,IF(E6+F6&gt;=40,4,0)))))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="12">
+        <v>4</v>
+      </c>
+      <c r="E7" s="12">
+        <v>51</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="12">
+        <v>3</v>
+      </c>
+      <c r="E8" s="12">
+        <v>65</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="12">
+        <v>3</v>
+      </c>
+      <c r="E9" s="12">
         <v>50</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="12">
+        <v>4</v>
+      </c>
+      <c r="E10" s="12">
+        <v>41</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="12">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12">
+        <v>66</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="19">
+        <f>SUM(D5, D6, D7, D8, D9, D10, D11)</f>
+        <v>25</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="14">
-        <v>3</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="14">
-        <v>70</v>
-      </c>
-      <c r="I5" s="15">
-        <v>70</v>
-      </c>
-      <c r="J5" s="15">
-        <v>30</v>
-      </c>
-      <c r="K5" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="14">
-        <v>4</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="16"/>
-    </row>
-    <row r="7" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="14">
-        <v>4</v>
-      </c>
-      <c r="E7" s="25">
-        <v>12</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="16"/>
-    </row>
-    <row r="8" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="14">
-        <v>3</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="14">
-        <v>4</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="14">
-        <v>4</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="14">
-        <v>4</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="28">
-        <f>ROUND(((K5*D5)+(K6*D6)+(K7*D7)+(K8*D8)+(K9*D9)+(K10*D10)+(K11*D11))/SUM(D5:D11), 2)</f>
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="14"/>
+      <c r="G12" s="20">
+        <f>ROUND(((G5*D5)+(G6*D6)+(G7*D7)+(G8*D8)+(G9*D9)+(G10*D10)+(G11*D11))/SUM(D5:D11), 2)</f>
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="14"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="16"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="14"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="14"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="14"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A3:G3"/>
   </mergeCells>
   <conditionalFormatting sqref="B1">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The credits worksheet has 2 data bars shows overall progress, a section for Requirements that automatically calculates the total earned and needed credits. It also has a table of courses for storing term course information" sqref="A1" xr:uid="{D07CD54E-27A9-413A-9422-2BEEB15A2179}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter college name in this cell" sqref="B1" xr:uid="{4F3B45CA-F5E5-494B-810E-07123E800185}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the term for which the course is applicable in this column" sqref="K4" xr:uid="{71492277-8B2B-49C2-9253-2F08DF0F098C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="For completed courses, enter the grade received for the course in this column" sqref="I4:J4" xr:uid="{644A6441-F421-4320-B9FC-7BC0CCE7072A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the number of credits for each course in this column" sqref="F4:G4 D4" xr:uid="{6C5AEBF7-BF11-443A-9379-4FF37B520B56}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the requirement in this column" sqref="E4" xr:uid="{7C692F11-A91F-4667-BFF8-F0278D57CF94}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the course # in this column" sqref="C4" xr:uid="{CCBCC5E3-533E-47ED-BF89-E8ACEE983E8E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter course title in this column" sqref="B4" xr:uid="{5D1F70B6-78AB-4C96-B1D5-8E450818D957}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Yes or No from the dropdown list to indicate whether the course has been completed or not. Select ALT+DOWN ARROW, navigate to either Yes or No, then select ENTER" sqref="H4" xr:uid="{CE3AA0F9-2DA9-4357-83B6-0B0150D33818}"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="Select either Yes or No from the provided list. RETRY then ALT+DOWN ARROW, then ENTER to select a value. CANCEL to exit the cell" sqref="H13:H19" xr:uid="{41D510C9-0F89-495B-BA76-9B4ED00638C7}">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" error="Select either Yes or No from the provided list. RETRY then ALT+DOWN ARROW, then ENTER to select a value. CANCEL to exit the cell" sqref="H5" xr:uid="{23B41D9D-2AD4-464A-B992-35D29BC404FB}"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="Grade is calculated as a GPA (non-weighted) and should be between 0 and 4." sqref="I5:J5" xr:uid="{8ED01CB3-4B8D-4CC9-B867-F02986C588EF}"/>
+  <dataValidations count="8">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="Grade is calculated as a GPA (non-weighted) and should be between 0 and 4." sqref="E5:F5" xr:uid="{74B3166B-5401-42A7-891E-5505E6C033B6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter course title in this column" sqref="B4" xr:uid="{2E60E83C-AD5A-46B4-9806-8D144EEC2CA0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the course # in this column" sqref="C4" xr:uid="{1A524148-3875-4080-AEB7-34DC366C7836}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the number of credits for each course in this column" sqref="D4" xr:uid="{189311B4-6D7D-4DB0-80A9-9978D69A9790}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="For completed courses, enter the grade received for the course in this column" sqref="E4:F4" xr:uid="{D4C490EA-E48F-45D1-ADA2-33C867856038}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the term for which the course is applicable in this column" sqref="G4" xr:uid="{057FFC86-2A77-4B89-8897-C479301FC96C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter college name in this cell" sqref="B1" xr:uid="{CE596478-9B3A-459E-A353-C7DB847CE701}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The credits worksheet has 2 data bars shows overall progress, a section for Requirements that automatically calculates the total earned and needed credits. It also has a table of courses for storing term course information" sqref="A1" xr:uid="{3916EF21-3A31-4A45-BCD1-216DDA63CCD0}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2613,11 +2938,18 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6CBAD10-2FE4-46B7-8B99-592C882565A7}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
